--- a/data/사회학특강 발표 자료/지역별 고용률 2015-2023.xlsx
+++ b/data/사회학특강 발표 자료/지역별 고용률 2015-2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\바탕 화면\사회학특강 발표 자료\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yooji\Documents\Projects\24fall\explainable_fertility\data\사회학특강 발표 자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BB8DEE6-F619-49BB-95AB-EBF4864E8C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEDAA07-7EEF-4F21-A290-042DEBD25210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3760" yWindow="3760" windowWidth="18000" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="데이터" sheetId="1" r:id="rId1"/>
@@ -104,9 +104,6 @@
     <t>경상남도</t>
   </si>
   <si>
-    <t>제주도</t>
-  </si>
-  <si>
     <t>○ 통계표ID</t>
   </si>
   <si>
@@ -207,6 +204,9 @@
   </si>
   <si>
     <t>2017년부터 충청남도에서 세종특별자치시를 분리함에 따라 충청남도의 2016년이전과 2017년이후 시계열이 단절되었음. 충청남도의 전년동월대비 비교시 주의 필요.</t>
+  </si>
+  <si>
+    <t>제주특별자치도</t>
   </si>
 </sst>
 </file>
@@ -301,18 +301,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -334,9 +334,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -374,7 +374,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -480,7 +480,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -622,7 +622,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -632,13 +632,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="21" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -668,7 +668,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -700,7 +700,7 @@
         <v>61.1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -732,7 +732,7 @@
         <v>57.7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -764,7 +764,7 @@
         <v>59.8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
@@ -796,7 +796,7 @@
         <v>63.1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
@@ -828,7 +828,7 @@
         <v>60.1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
@@ -860,7 +860,7 @@
         <v>61.6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
@@ -892,7 +892,7 @@
         <v>59.7</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
@@ -924,7 +924,7 @@
         <v>64.599999999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
@@ -956,7 +956,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
@@ -988,7 +988,7 @@
         <v>63.3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>21</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>65.400000000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
         <v>22</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>64.8</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>23</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>63.3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
         <v>24</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>66.900000000000006</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
         <v>25</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>63.5</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
         <v>26</v>
       </c>
@@ -1180,9 +1180,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="B18" s="4">
         <v>68.5</v>
@@ -1224,267 +1224,267 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="B2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="7" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="B3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="7" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="B4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="7" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="B5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="7" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="B6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="7" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="B8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="7" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="B10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="7" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="7" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="7" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="7" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="7" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="7" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="7" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="7" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="7" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="7" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="7" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="7" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="7" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="7" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
